--- a/teaching/traditional_assets/database/data/norway/norway_insurance_life.xlsx
+++ b/teaching/traditional_assets/database/data/norway/norway_insurance_life.xlsx
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0269</v>
+        <v>0.166</v>
       </c>
       <c r="E2">
-        <v>0.131</v>
+        <v>0.113</v>
       </c>
       <c r="F2">
-        <v>-0.0964</v>
+        <v>0.04190000000000001</v>
       </c>
       <c r="G2">
-        <v>0.05860770757752071</v>
+        <v>0.05740956520600673</v>
       </c>
       <c r="H2">
-        <v>0.05860770757752071</v>
+        <v>0.05740956520600673</v>
       </c>
       <c r="I2">
-        <v>0.04587582996782805</v>
+        <v>0.04347939932705778</v>
       </c>
       <c r="J2">
-        <v>0.04587582996782805</v>
+        <v>0.04347939932705778</v>
       </c>
       <c r="K2">
-        <v>359.1</v>
+        <v>230.2</v>
       </c>
       <c r="L2">
-        <v>0.04916147580258745</v>
+        <v>0.03013838520050798</v>
       </c>
       <c r="M2">
-        <v>176.5</v>
+        <v>8.43</v>
       </c>
       <c r="N2">
-        <v>0.04810312874741089</v>
+        <v>0.002407952240852352</v>
       </c>
       <c r="O2">
-        <v>0.4915065441381231</v>
+        <v>0.03662033014769765</v>
       </c>
       <c r="P2">
-        <v>155</v>
+        <v>1.17</v>
       </c>
       <c r="Q2">
-        <v>0.04224354082633817</v>
+        <v>0.0003341997772001485</v>
       </c>
       <c r="R2">
-        <v>0.4316346421609579</v>
+        <v>0.005082536924413553</v>
       </c>
       <c r="S2">
-        <v>21.5</v>
+        <v>7.26</v>
       </c>
       <c r="T2">
-        <v>0.1218130311614731</v>
+        <v>0.8612099644128114</v>
       </c>
       <c r="U2">
-        <v>415.8</v>
+        <v>412.7</v>
       </c>
       <c r="V2">
-        <v>0.1133217050038156</v>
+        <v>0.1178839726927361</v>
       </c>
       <c r="W2">
-        <v>0.09520653268996235</v>
+        <v>0.06407972386148535</v>
       </c>
       <c r="X2">
-        <v>0.1038725941762317</v>
+        <v>0.09048629046646217</v>
       </c>
       <c r="Y2">
-        <v>-0.008666061486269347</v>
+        <v>-0.02640656660497682</v>
       </c>
       <c r="Z2">
-        <v>1.149554625287212</v>
+        <v>1.211281677186083</v>
       </c>
       <c r="AA2">
-        <v>0.05273677252840641</v>
+        <v>0.05266579973992198</v>
       </c>
       <c r="AB2">
-        <v>0.06855559063182945</v>
+        <v>0.05546958694069165</v>
       </c>
       <c r="AC2">
-        <v>-0.01581881810342304</v>
+        <v>-0.002803787200769674</v>
       </c>
       <c r="AD2">
-        <v>3129.2</v>
+        <v>3514.4</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>3129.2</v>
+        <v>3514.4</v>
       </c>
       <c r="AG2">
-        <v>2713.4</v>
+        <v>3101.7</v>
       </c>
       <c r="AH2">
-        <v>0.4602847728877383</v>
+        <v>0.5009621826579048</v>
       </c>
       <c r="AI2">
-        <v>0.465170209603092</v>
+        <v>0.4833514420498151</v>
       </c>
       <c r="AJ2">
-        <v>0.4251245573904052</v>
+        <v>0.4697694847484324</v>
       </c>
       <c r="AK2">
-        <v>0.4299340854354163</v>
+        <v>0.4522615263480214</v>
       </c>
       <c r="AL2">
-        <v>99.40000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="AM2">
-        <v>99.40000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="AN2">
-        <v>8.580202906498492</v>
+        <v>10.05838580423583</v>
       </c>
       <c r="AO2">
-        <v>3.371227364185111</v>
+        <v>3.503164556962026</v>
       </c>
       <c r="AP2">
-        <v>7.440087743350698</v>
+        <v>8.877218088151118</v>
       </c>
       <c r="AQ2">
-        <v>3.371227364185111</v>
+        <v>3.503164556962026</v>
       </c>
     </row>
     <row r="3">
@@ -728,124 +728,124 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0269</v>
+        <v>0.166</v>
       </c>
       <c r="E3">
-        <v>0.131</v>
+        <v>0.113</v>
       </c>
       <c r="F3">
-        <v>-0.0964</v>
+        <v>0.04190000000000001</v>
       </c>
       <c r="G3">
-        <v>0.05860770757752071</v>
+        <v>0.05740956520600673</v>
       </c>
       <c r="H3">
-        <v>0.05860770757752071</v>
+        <v>0.05740956520600673</v>
       </c>
       <c r="I3">
-        <v>0.04587582996782805</v>
+        <v>0.04347939932705778</v>
       </c>
       <c r="J3">
-        <v>0.04587582996782805</v>
+        <v>0.04347939932705778</v>
       </c>
       <c r="K3">
-        <v>359.1</v>
+        <v>230.2</v>
       </c>
       <c r="L3">
-        <v>0.04916147580258745</v>
+        <v>0.03013838520050798</v>
       </c>
       <c r="M3">
-        <v>176.5</v>
+        <v>8.43</v>
       </c>
       <c r="N3">
-        <v>0.04810312874741089</v>
+        <v>0.002407952240852352</v>
       </c>
       <c r="O3">
-        <v>0.4915065441381231</v>
+        <v>0.03662033014769765</v>
       </c>
       <c r="P3">
-        <v>155</v>
+        <v>1.17</v>
       </c>
       <c r="Q3">
-        <v>0.04224354082633817</v>
+        <v>0.0003341997772001485</v>
       </c>
       <c r="R3">
-        <v>0.4316346421609579</v>
+        <v>0.005082536924413553</v>
       </c>
       <c r="S3">
-        <v>21.5</v>
+        <v>7.26</v>
       </c>
       <c r="T3">
-        <v>0.1218130311614731</v>
+        <v>0.8612099644128114</v>
       </c>
       <c r="U3">
-        <v>415.8</v>
+        <v>412.7</v>
       </c>
       <c r="V3">
-        <v>0.1133217050038156</v>
+        <v>0.1178839726927361</v>
       </c>
       <c r="W3">
-        <v>0.09520653268996235</v>
+        <v>0.06407972386148535</v>
       </c>
       <c r="X3">
-        <v>0.1038725941762317</v>
+        <v>0.09048629046646217</v>
       </c>
       <c r="Y3">
-        <v>-0.008666061486269347</v>
+        <v>-0.02640656660497682</v>
       </c>
       <c r="Z3">
-        <v>1.149554625287212</v>
+        <v>1.211281677186083</v>
       </c>
       <c r="AA3">
-        <v>0.05273677252840641</v>
+        <v>0.05266579973992198</v>
       </c>
       <c r="AB3">
-        <v>0.06855559063182945</v>
+        <v>0.05546958694069165</v>
       </c>
       <c r="AC3">
-        <v>-0.01581881810342304</v>
+        <v>-0.002803787200769674</v>
       </c>
       <c r="AD3">
-        <v>3129.2</v>
+        <v>3514.4</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>3129.2</v>
+        <v>3514.4</v>
       </c>
       <c r="AG3">
-        <v>2713.4</v>
+        <v>3101.7</v>
       </c>
       <c r="AH3">
-        <v>0.4602847728877383</v>
+        <v>0.5009621826579048</v>
       </c>
       <c r="AI3">
-        <v>0.465170209603092</v>
+        <v>0.4833514420498151</v>
       </c>
       <c r="AJ3">
-        <v>0.4251245573904052</v>
+        <v>0.4697694847484324</v>
       </c>
       <c r="AK3">
-        <v>0.4299340854354163</v>
+        <v>0.4522615263480214</v>
       </c>
       <c r="AL3">
-        <v>99.40000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="AM3">
-        <v>99.40000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="AN3">
-        <v>8.580202906498492</v>
+        <v>10.05838580423583</v>
       </c>
       <c r="AO3">
-        <v>3.371227364185111</v>
+        <v>3.503164556962026</v>
       </c>
       <c r="AP3">
-        <v>7.440087743350698</v>
+        <v>8.877218088151118</v>
       </c>
       <c r="AQ3">
-        <v>3.371227364185111</v>
+        <v>3.503164556962026</v>
       </c>
     </row>
   </sheetData>
